--- a/AI_genegator/products_3.xlsx
+++ b/AI_genegator/products_3.xlsx
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,6 +63,19 @@
       <family val="3"/>
       <color rgb="FFBCBEC4"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="81"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="4">
@@ -119,11 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,17 +220,27 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>OZON:Введите артикул товара или его номер в вашей базе. Артикул должен быть уникальным в рамках вашего ассортимента. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/articyl-tovara.html</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <t>OZON:Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <t>OZON:Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда".</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>OZON:Заполните данное поле любым одинаковым значением на товарах, которые хотите объединить. И по разному, если товары нужно разъединить. Объединение произойдет при условии, что товары имеют одинаковый Тип и Бренд, и хотя бы одна вариативная характеристика заполнена по разному на всех товарах в объединении.</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <t>OZON:Заполните данное поле любым одинаковым значением на товарах, которые хотите объединить. И по разному, если товары нужно разъединить. Объединение произойдет при условии, что товары имеют одинаковый Тип и Бренд, и хотя бы одна вариативная характеристика заполнена по разному на всех товарах в объединении.</t>
       </text>
@@ -21896,129 +21919,172 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B10:B21"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.5703125" customWidth="1" style="4" min="2" max="3"/>
-    <col width="105.5703125" customWidth="1" style="3" min="4" max="4"/>
+    <col width="5.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="47" customWidth="1" style="3" min="3" max="3"/>
+    <col width="15.5703125" customWidth="1" style="4" min="4" max="5"/>
+    <col width="105.5703125" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Артикул</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Название товара</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Бренд</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Коллекция</t>
         </is>
       </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="101.25" customFormat="1" customHeight="1" s="5">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Lasselsberger-Ceramics 1641-8644 Джапанди полосы Декор 20x40 см</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>00-00095699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cercom Damasco Moka Gold Wax Rett Декор 60x120 см</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>CERCOM</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Infinity</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>**Cercom Damasco Moka Gold Wax Rett: роскошь, воплощённая в керамике**  
+Позвольте вашему интерьеру засиять утончённой элегантностью с декором **Cercom Damasco Moka Gold Wax Rett** из коллекции **Infinity**. Этот изысканный керамический шедевр размером **60x120 см** соединяет в себе величие восточных мотивов и современную итальянскую эстетику.  
+✨ **Золотые акценты** на глубоких шоколадно-кофейных оттенках создают эффект утончённой роскоши, дополняя пространство изысканным блеском. Тонкий восковой финиш придаёт поверхности мягкое сияние, словно она освещена тёплым солнечным светом.  
+🎨 **Стиль и художественное исполнение**: уникальный узор, напоминающий богатые восточные дамасские ткани, дарит интерьеру ощущение аристократичности и изящества. Декор идеально подходит для акцентных стен, превращая любое помещение в пространство, наполненное шармом и характером.  
+📏 **Размер 60x120 см** — универсальный выбор для создания гармоничного дизайна как в просторных, так и в более компактных интерьерах.  
+💎 **Преимущества**:  
+- Высокая износостойкость и долговечность благодаря итальянскому качеству.  
+- Легкость в уходе, что делает его идеальным для ванных комнат, кухонь и гостиных.  
+- Совместимость с другими элементами коллекции Infinity для создания цельного дизайна.  
+Интересный факт: название "Damasco" отсылает к древнему городу Дамаск, известному своим искусством изготовления тканей с богатым орнаментом. Теперь этот дух восточного великолепия можно привнести в ваш дом!  
+С **Cercom Damasco Moka Gold Wax Rett** вы получаете не просто отделочный материал, а настоящее произведение искусства, которое превратит ваш интерьер в галерею утончённого стиля.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="59.25" customFormat="1" customHeight="1" s="5">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>00-00095039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lasselsberger-Ceramics 7360-0002 Ниагара геометрия Декор 30x60 см</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Lb Ceramics</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>ДЖАПАНДИ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>**Lasselsberger-Ceramics 1641-8644 Джапанди полосы: стильное прикосновение восточной философии в вашем интерьере**  
-Откройте для себя гармонию минимализма и утончённой эстетики с декором **Lasselsberger-Ceramics Джапанди полосы 20x40 см**. Этот изящный элемент из коллекции **ДЖАПАНДИ** от фабрики **LB Ceramics** идеально сочетает в себе скандинавскую простоту и японскую сдержанность, создавая атмосферу уюта и баланса.  
-Главное очарование дизайна — это тонкие вертикальные полосы, которые визуально вытягивают пространство, добавляя лёгкости и глубины. Теплая, нейтральная палитра подчёркивает естественность и спокойствие, идеально подходя для современных интерьеров: будь то ванная комната, кухня или даже гостиная.  
-Матовая поверхность декора выполнена с особым вниманием к деталям, передавая ощущение мягкости и природной текстуры. Размеры 20x40 см делают его универсальным для любых комбинаций: используйте как самостоятельный акцент или сочетайте с базовой плиткой коллекции **ДЖАПАНДИ** для создания уникальных узоров.  
-**Почему именно этот декор?**  
-- **Эстетика дзен:** вдохновленный философией японского ваби-саби и скандинавским хюгге.  
-- **Практичность:** износостойкость и лёгкость в уходе.  
-- **Универсальность:** подходит как для классических, так и для современных интерьеров.  
-- **Оптимальный размер:** удобный формат для разнообразных дизайнерских решений.  
-Добавьте в свой дом нотку философии джапанди — искусство жить в гармонии с собой и своим пространством. Lasselsberger-Ceramics 1641-8644 Джапанди полосы — это не просто плитка, это ваш шаг к интерьеру, который вдохновляет!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="59.25" customFormat="1" customHeight="1" s="5">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Lasselsberger-Ceramics 1641-8645 Джапанди пэчворк Декор 20x40 см</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Lb Ceramics</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>ДЖАПАНДИ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Откройте для себя изысканную гармонию японской утончённости и скандинавского минимализма с потрясающим декором **Lasselsberger-Ceramics 1641-8645 Джапанди Пэчворк** из коллекции **ДЖАПАНДИ**! Этот керамический шедевр размером **20x40 см** станет стильным акцентом в вашем интерьере, добавив нотки современного искусства и природной гармонии.
-Декор выполнен в духе трендового стиля "джапанди" — идеального слияния лаконичности северной эстетики и философии восточного спокойствия. Тонкие геометрические узоры будто бы впитали в себя дыхание природы: мягкие оттенки серого, бежевого и белого создают уютное и сбалансированное пространство. Матовая поверхность с лёгким тактильным эффектом подчёркивает натуральность текстуры, создавая ощущение ручной работы.
-Этот декор привносит в интерьер невероятную глубину и динамику благодаря композиции в стиле пэчворк. Каждая плитка — это уникальная история, которая складывается в единое полотно, пробуждая вдохновение и уют.
-**Почему стоит выбрать этот декор?**  
-✔ **Эксклюзивный дизайн:** сочетание восточной изысканности и скандинавской простоты.  
-✔ **Универсальность:** идеально подходит для ванных комнат, кухонь или акцентных стен.  
-✔ **Качество премиум-класса:** надёжность и долговечность от фабрики LB Ceramics.  
-✔ **Размер 20x40 см:** удобный формат для создания стильных интерьерных решений.  
-Добавьте в своё пространство штрихи утончённости и гармонии с декором **Джапанди Пэчворк** — искусством, которое вдохновляет!</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>НИАГАРА</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>**Декор Lasselsberger-Ceramics 7360-0002 "Ниагара Геометрия" 30x60 см – искусство в каждой детали!**
+Позвольте вашему интерьеру заиграть новыми гранями стиля с изысканным декором из коллекции "Ниагара" от LB Ceramics. Этот дизайнерский элемент сочетает в себе гармонию геометрических узоров и современного минимализма, создавая эффектный акцент в любом пространстве. 
+**Ключевые особенности:**
+- **Размер 30x60 см** — идеальные пропорции для элегантного оформления стен.
+- **Геометрический узор** — стильный и модный тренд, который добавляет глубину и динамику.
+- **Универсальный оттенок** — мягкая, нейтральная палитра позволяет декору идеально вписаться как в спокойный интерьер, так и в смелые дизайнерские решения.
+- **Высокое качество поверхности** — гладкая и износостойкая текстура, устойчивая к влаге и истиранию, что делает декор идеальным для ванных комнат и кухонь.
+- **Современный дизайн** — вдохновленный природной мощью водопадов, он создает атмосферу свежести и энергии в вашем доме.
+Этот декор — не просто плитка, это настоящее произведение искусства, способное преобразить ваш интерьер. Представьте, как утончённые линии и формы превращают обычную стену в стильный арт-объект. Это идеальный выбор для тех, кто ценит баланс эстетики и функциональности. 
+Добавьте нотку изысканности и природного совершенства в ваш дом с декором "Ниагара Геометрия" от LB Ceramics — и ваш интерьер заговорит на языке современного искусства!</t>
         </is>
       </c>
     </row>
     <row r="4" ht="52.5" customFormat="1" customHeight="1" s="5">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Serenissima Cir Chromagic Tian Emerald Ret Декор 60x120 см</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Serenissima Cir</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>CHROMAGIC</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>🌿 **Serenissima Cir Chromagic Tian Emerald Ret — воплощение гармонии природы и современного дизайна!** 🌿  
-Погрузитесь в мир утончённой роскоши с декором **Tian Emerald** размером **60x120 см** из коллекции **CHROMAGIC**. Этот шедевр итальянской фабрики **Serenissima Cir** становится настоящим акцентом любого интерьера, сочетая в себе изысканность и природное очарование.  
-✨ **Ключевые характеристики:**  
-- **Цветовая палитра:** глубокий изумрудный фон с тонкими прожилками, напоминающими мрамор, создаёт атмосферу элегантности и спокойствия.  
-- **Форма и размеры:** идеальные пропорции (**60x120 см**) позволяют использовать декор как самостоятельный арт-объект или как часть масштабной композиции.  
-- **Поверхность:** матовая текстура с утончённым блеском придаёт изделию благородство и подчёркивает его премиальность.  
-- **Реттифицированные края:** для максимально точной укладки и создания безупречно ровных стыков.  
-💎 **Почему выбрать Tian Emerald?**  
-Этот декор — словно окно в мир природной красоты. Его изумрудные оттенки вдохновлены богатством тропических лесов, а тонкие линии прожилок напоминают рисунки, созданные самой природой. Он идеально впишется в современные интерьеры в стилях **лофт**, **минимализм** или **арт-деко**, добавляя нотку изысканности и утончённости.  
-🌍 **Интересный факт:** Название "Tian" отсылает к китайскому слову "небо", символизируя высшую гармонию и бесконечность. Этот декор станет вашим проводником в пространство, где сочетаются природа и искусство.  
-Создайте интерьер, который завораживает с первого взгляда! **Serenissima Cir Chromagic Tian Emerald Ret** — это не просто декор, это искусство, которое оживает у вас дома. ✨</t>
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>00-00094646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>APE Ceramicas Four seasons Tapestry Pumice Rect Серый Матовый Декор 60x120 см</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>APE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FOUR SEASONS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>**APE Ceramicas Four Seasons Tapestry Pumice Rect – искусство на грани совершенства!**  
+Погрузитесь в мир утончённой эстетики с этим изысканным декором от фабрики **APE Ceramicas**. Серый матовый декор размером **60x120 см** из коллекции **Four Seasons** – это больше, чем просто плитка, это воплощение гармонии природы и современного дизайна.
+**Ключевые характеристики:**
+- **Уникальная текстура:** Матовая поверхность с изысканным "тканым" узором напоминает тонкое кружево, выполненное из камня. Каждая деталь рисунка словно рассказывает историю смены времён года, вдохновляя на создание интерьера мечты.  
+- **Современная палитра:** Нейтральный серый цвет не только добавляет глубины и спокойствия, но и служит идеальной базой для сочетания с другими элементами отделки.  
+- **Эффектный размер:** Великолепный формат **60x120 см** визуально увеличивает пространство и подчёркивает его современный стиль.  
+- **Долговечность и практичность:** Керамический декор устойчив к воздействию времени, что делает его прекрасным выбором для ванных комнат, кухонь или гостиных.  
+**Почему выбрать именно этот декор?**  
+Four Seasons Tapestry Pumice – это выбор тех, кто ценит красоту в деталях. Его дизайн напоминает о мягкости текстиля, но с прочностью камня. Это идеальное решение для создания атмосферы уюта и стиля, будь то минималистичный интерьер или роскошная классика.  
+**Интересный факт:** Коллекция **Four Seasons** названа в честь смены времён года, что символизирует её универсальность и способность адаптироваться к любому стилю интерьера – от лёгкой весенней свежести до тёплой осени.  
+Создайте интерьер, который вдохновляет и дарит чувство гармонии каждый день, с декором **APE Ceramicas Four Seasons Tapestry Pumice Rect**. Это не просто плитка – это ваш личный шедевр дизайна!</t>
         </is>
       </c>
     </row>
@@ -22029,39 +22095,42 @@
     <row r="9"/>
     <row r="10"/>
     <row r="11">
-      <c r="B11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="n"/>
+      <c r="D14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="n"/>
+      <c r="D15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="n"/>
+      <c r="D16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="n"/>
+      <c r="D17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="n"/>
+      <c r="D18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="n"/>
+      <c r="D19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="n"/>
+      <c r="D20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="n"/>
+      <c r="D21" s="6" t="n"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A4" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Ошибка" error="Неверный формат данных" type="whole"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="anysvml"/>
